--- a/media/batchfiles/batch_report_OSI.xlsx
+++ b/media/batchfiles/batch_report_OSI.xlsx
@@ -629,7 +629,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>May 15 2024</t>
+          <t>June 15 2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -644,7 +644,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9964213310</t>
+          <t>9966671861</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -733,7 +733,7 @@
         </is>
       </c>
       <c r="AB2" s="1" t="n">
-        <v>46043.34088414774</v>
+        <v>46056.34576601609</v>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
@@ -742,7 +742,7 @@
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>2761.63</t>
+          <t>5499.63</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
@@ -858,7 +858,7 @@
         </is>
       </c>
       <c r="AB3" s="1" t="n">
-        <v>46043.34195931885</v>
+        <v>46056.35169982485</v>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
